--- a/data/pca/factorExposure/factorExposure_2017-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01013844695460724</v>
+        <v>0.00947846171356188</v>
       </c>
       <c r="C2">
-        <v>0.003561460951177599</v>
+        <v>0.03254575786399486</v>
       </c>
       <c r="D2">
-        <v>0.02042408847127716</v>
+        <v>-0.02807585395782392</v>
       </c>
       <c r="E2">
-        <v>0.06195400941660356</v>
+        <v>0.02623670159627385</v>
       </c>
       <c r="F2">
-        <v>0.006559544319045504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03398381177763665</v>
+      </c>
+      <c r="G2">
+        <v>-0.01094531585906611</v>
+      </c>
+      <c r="H2">
+        <v>0.00769401591683175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.05745633687126288</v>
+        <v>0.06187554756301077</v>
       </c>
       <c r="C3">
-        <v>-0.0009169354913033869</v>
+        <v>0.08571399290374786</v>
       </c>
       <c r="D3">
-        <v>-0.03919471279330812</v>
+        <v>-0.01304153912452108</v>
       </c>
       <c r="E3">
-        <v>0.2433613244631809</v>
+        <v>0.07407156690611584</v>
       </c>
       <c r="F3">
-        <v>0.1071992871266901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08671441064813733</v>
+      </c>
+      <c r="G3">
+        <v>-0.06580639893105086</v>
+      </c>
+      <c r="H3">
+        <v>-0.00458369396032222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03707103739641546</v>
+        <v>0.05284456864389615</v>
       </c>
       <c r="C4">
-        <v>-0.0159135286687136</v>
+        <v>0.05989389364359604</v>
       </c>
       <c r="D4">
-        <v>0.03288853051274343</v>
+        <v>-0.02118321722332148</v>
       </c>
       <c r="E4">
-        <v>0.03294506083644341</v>
+        <v>-0.00102564072522352</v>
       </c>
       <c r="F4">
-        <v>0.05409925584957805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01893492233678962</v>
+      </c>
+      <c r="G4">
+        <v>-0.03753712165887098</v>
+      </c>
+      <c r="H4">
+        <v>-0.02924569302266253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0655547061383058</v>
+        <v>0.02935629336008879</v>
       </c>
       <c r="C6">
-        <v>-0.004724861296139739</v>
+        <v>0.05757350103737122</v>
       </c>
       <c r="D6">
-        <v>0.04290235451027969</v>
+        <v>-0.01592406774548459</v>
       </c>
       <c r="E6">
-        <v>0.02682883993370912</v>
+        <v>0.002010861726213702</v>
       </c>
       <c r="F6">
-        <v>0.03445496480140318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01762912747933748</v>
+      </c>
+      <c r="G6">
+        <v>-0.01915068024867961</v>
+      </c>
+      <c r="H6">
+        <v>-0.004345181772193286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02720772571466761</v>
+        <v>0.01425022506014371</v>
       </c>
       <c r="C7">
-        <v>-0.06928487178495152</v>
+        <v>0.03712124427395905</v>
       </c>
       <c r="D7">
-        <v>-0.001485539063611165</v>
+        <v>-0.01249282789586791</v>
       </c>
       <c r="E7">
-        <v>0.009854418028492859</v>
+        <v>-0.01761110243430121</v>
       </c>
       <c r="F7">
-        <v>0.005553867143246058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01011071966141117</v>
+      </c>
+      <c r="G7">
+        <v>-0.07376675101856264</v>
+      </c>
+      <c r="H7">
+        <v>0.006606111646344687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01422520074441481</v>
+        <v>-0.006683774461324264</v>
       </c>
       <c r="C8">
-        <v>-0.00903049553509349</v>
+        <v>0.01181070913706517</v>
       </c>
       <c r="D8">
-        <v>0.02363031128000669</v>
+        <v>-0.003606344023328211</v>
       </c>
       <c r="E8">
-        <v>0.03067569256986629</v>
+        <v>0.01166155786200858</v>
       </c>
       <c r="F8">
-        <v>0.02655914618830086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02498311393790957</v>
+      </c>
+      <c r="G8">
+        <v>-0.02630078621480943</v>
+      </c>
+      <c r="H8">
+        <v>-0.02166172021107989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02973618179180421</v>
+        <v>0.0279720896998586</v>
       </c>
       <c r="C9">
-        <v>-0.01130460569446407</v>
+        <v>0.0410170200729629</v>
       </c>
       <c r="D9">
-        <v>0.02378717387881218</v>
+        <v>-0.01455801341925463</v>
       </c>
       <c r="E9">
-        <v>0.05226215444680105</v>
+        <v>-0.0007770304402261941</v>
       </c>
       <c r="F9">
-        <v>0.0300402924672103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02006086761087482</v>
+      </c>
+      <c r="G9">
+        <v>-0.0271904108023011</v>
+      </c>
+      <c r="H9">
+        <v>0.003853649847656958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05983340754195635</v>
+        <v>0.09514652731444222</v>
       </c>
       <c r="C10">
-        <v>0.017584088334605</v>
+        <v>-0.1782836808513562</v>
       </c>
       <c r="D10">
-        <v>-0.1717616173169832</v>
+        <v>0.02117806172478643</v>
       </c>
       <c r="E10">
-        <v>0.02589367436338183</v>
+        <v>0.01840224203448026</v>
       </c>
       <c r="F10">
-        <v>-0.008566761086561188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01239703159534006</v>
+      </c>
+      <c r="G10">
+        <v>-0.03261998251492453</v>
+      </c>
+      <c r="H10">
+        <v>0.02659106268846732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02884886672685011</v>
+        <v>0.03448399368892455</v>
       </c>
       <c r="C11">
-        <v>0.0024393463016739</v>
+        <v>0.05507301796200026</v>
       </c>
       <c r="D11">
-        <v>0.04286414241463143</v>
+        <v>-0.0004817805878682793</v>
       </c>
       <c r="E11">
-        <v>0.01310876216826499</v>
+        <v>-0.007597845470571625</v>
       </c>
       <c r="F11">
-        <v>0.01666139561196671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02696555694756792</v>
+      </c>
+      <c r="G11">
+        <v>-0.007586103181336279</v>
+      </c>
+      <c r="H11">
+        <v>-0.001646126612129809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0363140953372736</v>
+        <v>0.03361658008219261</v>
       </c>
       <c r="C12">
-        <v>-0.005457675273469722</v>
+        <v>0.04858520171581346</v>
       </c>
       <c r="D12">
-        <v>0.04154254564708556</v>
+        <v>-0.004928953742116073</v>
       </c>
       <c r="E12">
-        <v>-0.01101504945075124</v>
+        <v>-0.01328855948989438</v>
       </c>
       <c r="F12">
-        <v>-0.002444735883483938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007261286796592494</v>
+      </c>
+      <c r="G12">
+        <v>-0.01382118504721852</v>
+      </c>
+      <c r="H12">
+        <v>-0.0002429776264764957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01897518043356007</v>
+        <v>0.01110305069521553</v>
       </c>
       <c r="C13">
-        <v>0.001290691862717522</v>
+        <v>0.02942710066543312</v>
       </c>
       <c r="D13">
-        <v>0.01681483234173168</v>
+        <v>-0.0237473253799705</v>
       </c>
       <c r="E13">
-        <v>0.04187924037132384</v>
+        <v>0.01702876867959441</v>
       </c>
       <c r="F13">
-        <v>0.03755944382722647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0338288285474656</v>
+      </c>
+      <c r="G13">
+        <v>-0.02312894420617647</v>
+      </c>
+      <c r="H13">
+        <v>-0.01204405919398776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01542171598559376</v>
+        <v>0.007031314951092085</v>
       </c>
       <c r="C14">
-        <v>-0.01420325103202928</v>
+        <v>0.02673155533044253</v>
       </c>
       <c r="D14">
-        <v>0.008059787973393531</v>
+        <v>-0.008268506029398189</v>
       </c>
       <c r="E14">
-        <v>0.02027980077657326</v>
+        <v>-0.00715107729531147</v>
       </c>
       <c r="F14">
-        <v>0.02604490392581839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.002576143512519308</v>
+      </c>
+      <c r="G14">
+        <v>-0.03308858101106115</v>
+      </c>
+      <c r="H14">
+        <v>-0.01605154993388713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02782086695998322</v>
+        <v>0.03037869253759415</v>
       </c>
       <c r="C16">
-        <v>-0.003413831917129323</v>
+        <v>0.04308621913658252</v>
       </c>
       <c r="D16">
-        <v>0.04213651630566743</v>
+        <v>-0.0001828343532745047</v>
       </c>
       <c r="E16">
-        <v>0.01457502756267319</v>
+        <v>-0.004648286713393887</v>
       </c>
       <c r="F16">
-        <v>0.02216451959926822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01481706608546902</v>
+      </c>
+      <c r="G16">
+        <v>-0.01292208950699763</v>
+      </c>
+      <c r="H16">
+        <v>-0.003947811749827551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02680798360435606</v>
+        <v>0.02579782199735366</v>
       </c>
       <c r="C19">
-        <v>-0.001381103639122529</v>
+        <v>0.05416481343184282</v>
       </c>
       <c r="D19">
-        <v>0.03694785974890662</v>
+        <v>-0.01430441185773615</v>
       </c>
       <c r="E19">
-        <v>0.05173776435771985</v>
+        <v>0.0304632104404218</v>
       </c>
       <c r="F19">
-        <v>0.08159657635317738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04458575139729132</v>
+      </c>
+      <c r="G19">
+        <v>-0.03506938265877652</v>
+      </c>
+      <c r="H19">
+        <v>-0.03406068391117136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002464068027487515</v>
+        <v>0.008058804081872194</v>
       </c>
       <c r="C20">
-        <v>-0.003100564159156205</v>
+        <v>0.03133713321715195</v>
       </c>
       <c r="D20">
-        <v>0.0009136050945143531</v>
+        <v>-0.01248441394929587</v>
       </c>
       <c r="E20">
-        <v>0.02937953705918576</v>
+        <v>0.01674118967418145</v>
       </c>
       <c r="F20">
-        <v>0.01433041717464419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01255229779907182</v>
+      </c>
+      <c r="G20">
+        <v>-0.02262468589498742</v>
+      </c>
+      <c r="H20">
+        <v>-0.01062285157865606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03930145430603361</v>
+        <v>0.01136302089327541</v>
       </c>
       <c r="C21">
-        <v>-0.02171325905402348</v>
+        <v>0.03511342240698435</v>
       </c>
       <c r="D21">
-        <v>0.01271189541961111</v>
+        <v>-0.01549925517498293</v>
       </c>
       <c r="E21">
-        <v>0.02618958840548738</v>
+        <v>0.02198698244238447</v>
       </c>
       <c r="F21">
-        <v>0.03304393294439368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02328968559278034</v>
+      </c>
+      <c r="G21">
+        <v>-0.04641097887471094</v>
+      </c>
+      <c r="H21">
+        <v>-0.0105408689208085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02611596957243003</v>
+        <v>0.02497160556519288</v>
       </c>
       <c r="C24">
-        <v>-0.001308041223165855</v>
+        <v>0.04569269015638922</v>
       </c>
       <c r="D24">
-        <v>0.03439664607000135</v>
+        <v>-0.005418826881042496</v>
       </c>
       <c r="E24">
-        <v>0.01179257655715146</v>
+        <v>-0.01005711847780999</v>
       </c>
       <c r="F24">
-        <v>0.01432107823904272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02225102981313678</v>
+      </c>
+      <c r="G24">
+        <v>-0.01001856317176466</v>
+      </c>
+      <c r="H24">
+        <v>0.004328788755546164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03952686758950699</v>
+        <v>0.04169324507398211</v>
       </c>
       <c r="C25">
-        <v>0.000601722679328972</v>
+        <v>0.05460860206651342</v>
       </c>
       <c r="D25">
-        <v>0.03299486042127947</v>
+        <v>-0.009352693866052293</v>
       </c>
       <c r="E25">
-        <v>0.0265357232811386</v>
+        <v>-0.01679201115224756</v>
       </c>
       <c r="F25">
-        <v>0.02723914166955536</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01886663231567303</v>
+      </c>
+      <c r="G25">
+        <v>-0.01706707477672759</v>
+      </c>
+      <c r="H25">
+        <v>-0.007324911361109374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>4.931311784280403e-05</v>
+        <v>0.002743797182910322</v>
       </c>
       <c r="C26">
-        <v>-0.009709042392311211</v>
+        <v>0.00652637797280711</v>
       </c>
       <c r="D26">
-        <v>0.003458572120844064</v>
+        <v>-0.0235219314893376</v>
       </c>
       <c r="E26">
-        <v>0.03055776369636269</v>
+        <v>0.003665511349881863</v>
       </c>
       <c r="F26">
-        <v>-0.004157371209998087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008220659476456071</v>
+      </c>
+      <c r="G26">
+        <v>-0.02133625043837549</v>
+      </c>
+      <c r="H26">
+        <v>-0.007814692552024261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09217606380146201</v>
+        <v>0.1232798653930992</v>
       </c>
       <c r="C28">
-        <v>0.0250361999088868</v>
+        <v>-0.2183909360943459</v>
       </c>
       <c r="D28">
-        <v>-0.2424251905350966</v>
+        <v>0.0132818030264249</v>
       </c>
       <c r="E28">
-        <v>0.01688967594754721</v>
+        <v>0.01056819552631134</v>
       </c>
       <c r="F28">
-        <v>-0.007611026452092827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01070174829543151</v>
+      </c>
+      <c r="G28">
+        <v>-0.04771857428235726</v>
+      </c>
+      <c r="H28">
+        <v>0.01554838149511957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01512649293258439</v>
+        <v>0.01157921787502519</v>
       </c>
       <c r="C29">
-        <v>-0.01043754429307924</v>
+        <v>0.02221218589045358</v>
       </c>
       <c r="D29">
-        <v>0.0104736636537838</v>
+        <v>-0.007053435343357924</v>
       </c>
       <c r="E29">
-        <v>0.02020616289517765</v>
+        <v>-0.0058858722866162</v>
       </c>
       <c r="F29">
-        <v>0.02947166634640375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.003430435533021925</v>
+      </c>
+      <c r="G29">
+        <v>-0.02677221814053374</v>
+      </c>
+      <c r="H29">
+        <v>-0.02093250550655429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04828370831961297</v>
+        <v>0.03452133578739906</v>
       </c>
       <c r="C30">
-        <v>0.05022328365553339</v>
+        <v>0.07170582037769033</v>
       </c>
       <c r="D30">
-        <v>0.06698845820001273</v>
+        <v>-0.02658181165227634</v>
       </c>
       <c r="E30">
-        <v>0.06538567681790368</v>
+        <v>0.01755455972477653</v>
       </c>
       <c r="F30">
-        <v>0.04120471031044635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04657071125020559</v>
+      </c>
+      <c r="G30">
+        <v>0.01257853033883244</v>
+      </c>
+      <c r="H30">
+        <v>-0.01750029375373584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04788969671457673</v>
+        <v>0.04199211830064962</v>
       </c>
       <c r="C31">
-        <v>-0.0126103347001036</v>
+        <v>0.02623404167461818</v>
       </c>
       <c r="D31">
-        <v>0.01658280601002998</v>
+        <v>-0.001647476590298346</v>
       </c>
       <c r="E31">
-        <v>-0.001163333373091405</v>
+        <v>-0.01703512186480887</v>
       </c>
       <c r="F31">
-        <v>0.01805676987833409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0267292397546148</v>
+      </c>
+      <c r="G31">
+        <v>-0.02415740122222814</v>
+      </c>
+      <c r="H31">
+        <v>-0.005714446765321236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002986503942959091</v>
+        <v>0.003292126575697568</v>
       </c>
       <c r="C32">
-        <v>-0.02839488722692221</v>
+        <v>0.03321344549882118</v>
       </c>
       <c r="D32">
-        <v>0.02521358097027271</v>
+        <v>0.005147796933681174</v>
       </c>
       <c r="E32">
-        <v>0.01818710808250912</v>
+        <v>0.01382869392655619</v>
       </c>
       <c r="F32">
-        <v>0.06612407073321142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07645508805489945</v>
+      </c>
+      <c r="G32">
+        <v>-0.05161072900974208</v>
+      </c>
+      <c r="H32">
+        <v>-0.05435093560736284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03537847063198447</v>
+        <v>0.02865219801068389</v>
       </c>
       <c r="C33">
-        <v>0.02060957245704285</v>
+        <v>0.05056140010876378</v>
       </c>
       <c r="D33">
-        <v>0.0318113301804079</v>
+        <v>-0.01312978872742512</v>
       </c>
       <c r="E33">
-        <v>0.04417535310317733</v>
+        <v>0.01392642628942162</v>
       </c>
       <c r="F33">
-        <v>-0.002787441233470857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0241530128730717</v>
+      </c>
+      <c r="G33">
+        <v>-0.01215791090835946</v>
+      </c>
+      <c r="H33">
+        <v>0.01356652533691113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02957436172988944</v>
+        <v>0.0440447501672883</v>
       </c>
       <c r="C34">
-        <v>-0.0119236451738521</v>
+        <v>0.05623145976089403</v>
       </c>
       <c r="D34">
-        <v>0.04428840923240165</v>
+        <v>0.006766547133526017</v>
       </c>
       <c r="E34">
-        <v>0.01233520291249754</v>
+        <v>-0.01712908895282094</v>
       </c>
       <c r="F34">
-        <v>0.02481217935386757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02353977138685504</v>
+      </c>
+      <c r="G34">
+        <v>-0.0216225085889819</v>
+      </c>
+      <c r="H34">
+        <v>-0.001959868528310174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01452123769789447</v>
+        <v>0.01098422805102209</v>
       </c>
       <c r="C36">
-        <v>-0.004713040737939321</v>
+        <v>0.003742118402390221</v>
       </c>
       <c r="D36">
-        <v>0.0007280394726142073</v>
+        <v>-0.01040600748844761</v>
       </c>
       <c r="E36">
-        <v>0.01611608192159072</v>
+        <v>-0.001590364676473575</v>
       </c>
       <c r="F36">
-        <v>0.01163512853281796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0003424766857423678</v>
+      </c>
+      <c r="G36">
+        <v>-0.01404932269488899</v>
+      </c>
+      <c r="H36">
+        <v>0.0003814530497891566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02347259749815597</v>
+        <v>0.0266948549298207</v>
       </c>
       <c r="C38">
-        <v>0.002964127928307561</v>
+        <v>0.01793537779976711</v>
       </c>
       <c r="D38">
-        <v>0.00914439176418726</v>
+        <v>0.008288216842726405</v>
       </c>
       <c r="E38">
-        <v>0.04219299837847969</v>
+        <v>-0.002429005656288127</v>
       </c>
       <c r="F38">
-        <v>0.005292058712083434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007583996451364712</v>
+      </c>
+      <c r="G38">
+        <v>-0.01859624737550564</v>
+      </c>
+      <c r="H38">
+        <v>0.001440050373462403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02399234820727723</v>
+        <v>0.02613796738055964</v>
       </c>
       <c r="C39">
-        <v>-0.008831703999964923</v>
+        <v>0.08326456924631367</v>
       </c>
       <c r="D39">
-        <v>0.06888347206974603</v>
+        <v>-0.01129782963258447</v>
       </c>
       <c r="E39">
-        <v>0.04463681162561125</v>
+        <v>0.004805990286751018</v>
       </c>
       <c r="F39">
-        <v>0.03915050018493092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04308294175690867</v>
+      </c>
+      <c r="G39">
+        <v>-0.01240701334304294</v>
+      </c>
+      <c r="H39">
+        <v>0.01017370338192674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03316216954530563</v>
+        <v>0.01875596311449362</v>
       </c>
       <c r="C40">
-        <v>0.001595096940655889</v>
+        <v>0.03073549748379101</v>
       </c>
       <c r="D40">
-        <v>0.04348771673945938</v>
+        <v>-0.01261841938906944</v>
       </c>
       <c r="E40">
-        <v>0.03150967577903829</v>
+        <v>0.009047267024284414</v>
       </c>
       <c r="F40">
-        <v>0.002042812476411352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02547229526366128</v>
+      </c>
+      <c r="G40">
+        <v>-0.01166235031347723</v>
+      </c>
+      <c r="H40">
+        <v>0.007859117836986975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.010260165323676</v>
+        <v>0.01171988721118915</v>
       </c>
       <c r="C41">
-        <v>0.0008891437384180944</v>
+        <v>-0.005186606815082191</v>
       </c>
       <c r="D41">
-        <v>-0.01196025139403535</v>
+        <v>-0.002545737778576366</v>
       </c>
       <c r="E41">
-        <v>0.005512693295087862</v>
+        <v>-0.008290406606320157</v>
       </c>
       <c r="F41">
-        <v>0.005656494719154929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0006998131209611766</v>
+      </c>
+      <c r="G41">
+        <v>-0.008619967544229609</v>
+      </c>
+      <c r="H41">
+        <v>-0.002737546368092406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1796614027336705</v>
+        <v>0.0437757562140294</v>
       </c>
       <c r="C42">
-        <v>0.1191538781342179</v>
+        <v>0.06655676250404916</v>
       </c>
       <c r="D42">
-        <v>0.08860250925024411</v>
+        <v>-0.1076747256659488</v>
       </c>
       <c r="E42">
-        <v>0.1838437526139012</v>
+        <v>0.07885890551525844</v>
       </c>
       <c r="F42">
-        <v>-0.8714568058056577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1527336097895816</v>
+      </c>
+      <c r="G42">
+        <v>0.2846329343641273</v>
+      </c>
+      <c r="H42">
+        <v>0.9062514319541566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01768146901332545</v>
+        <v>0.02744327464294312</v>
       </c>
       <c r="C43">
-        <v>0.004079502129169147</v>
+        <v>0.005386146468988175</v>
       </c>
       <c r="D43">
-        <v>-0.009387024271084454</v>
+        <v>-0.002425948693711315</v>
       </c>
       <c r="E43">
-        <v>0.01072281100756097</v>
+        <v>-0.005370241585855651</v>
       </c>
       <c r="F43">
-        <v>0.0003762618669570958</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003772370392587454</v>
+      </c>
+      <c r="G43">
+        <v>-0.01038037076699655</v>
+      </c>
+      <c r="H43">
+        <v>-0.001384652275201607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01026892391931756</v>
+        <v>0.01419195420129307</v>
       </c>
       <c r="C44">
-        <v>-0.009335874837001908</v>
+        <v>0.04919674498016763</v>
       </c>
       <c r="D44">
-        <v>0.01470729546080498</v>
+        <v>-0.006412896260041418</v>
       </c>
       <c r="E44">
-        <v>0.07258700060250792</v>
+        <v>0.01447402290687603</v>
       </c>
       <c r="F44">
-        <v>0.0320379271090958</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02714692673760864</v>
+      </c>
+      <c r="G44">
+        <v>-0.02905652528601989</v>
+      </c>
+      <c r="H44">
+        <v>0.01344890052047743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01129777612951582</v>
+        <v>0.0005804146035221208</v>
       </c>
       <c r="C46">
-        <v>-0.002914124010927319</v>
+        <v>0.01591993003040311</v>
       </c>
       <c r="D46">
-        <v>0.03126137349130331</v>
+        <v>-0.01117520760308595</v>
       </c>
       <c r="E46">
-        <v>0.04067682715440189</v>
+        <v>-0.007523866784577301</v>
       </c>
       <c r="F46">
-        <v>0.04597454957305726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006041057938067505</v>
+      </c>
+      <c r="G46">
+        <v>-0.01834351612574934</v>
+      </c>
+      <c r="H46">
+        <v>-0.02219542888747139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.075045651785747</v>
+        <v>0.06788693101294571</v>
       </c>
       <c r="C47">
-        <v>0.002899332723290593</v>
+        <v>0.06057042803927859</v>
       </c>
       <c r="D47">
-        <v>0.02340132023312761</v>
+        <v>0.005673036330295518</v>
       </c>
       <c r="E47">
-        <v>-0.03432094936485539</v>
+        <v>-0.01899437474822159</v>
       </c>
       <c r="F47">
-        <v>-0.01648537365274575</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.05905853189027001</v>
+      </c>
+      <c r="G47">
+        <v>-0.01460635053641204</v>
+      </c>
+      <c r="H47">
+        <v>-0.006335331620467847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02388905199652304</v>
+        <v>0.01512186614756414</v>
       </c>
       <c r="C48">
-        <v>-0.004352859719381717</v>
+        <v>0.01064889547835589</v>
       </c>
       <c r="D48">
-        <v>0.007640155671343293</v>
+        <v>-0.0004644845432725061</v>
       </c>
       <c r="E48">
-        <v>0.01607002657843633</v>
+        <v>-0.007760943739085468</v>
       </c>
       <c r="F48">
-        <v>0.01181651473466123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01355729285844884</v>
+      </c>
+      <c r="G48">
+        <v>-0.01678291398894045</v>
+      </c>
+      <c r="H48">
+        <v>-0.003459237957816753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07621142916484185</v>
+        <v>0.07364283429057319</v>
       </c>
       <c r="C50">
-        <v>-0.02770673047310477</v>
+        <v>0.06495810600158231</v>
       </c>
       <c r="D50">
-        <v>0.04327472616096396</v>
+        <v>0.004755274450168395</v>
       </c>
       <c r="E50">
-        <v>-0.006115914467637395</v>
+        <v>-0.01958330713109488</v>
       </c>
       <c r="F50">
-        <v>-0.01773432774637786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05566233031491381</v>
+      </c>
+      <c r="G50">
+        <v>-0.0398004512561972</v>
+      </c>
+      <c r="H50">
+        <v>-0.007623478638373297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0140060733969022</v>
+        <v>0.01558842521663555</v>
       </c>
       <c r="C51">
-        <v>-0.00661950160252771</v>
+        <v>0.02903414532500912</v>
       </c>
       <c r="D51">
-        <v>-0.01936356988634306</v>
+        <v>-0.00826895292147807</v>
       </c>
       <c r="E51">
-        <v>0.05930147928458242</v>
+        <v>0.003037451054991404</v>
       </c>
       <c r="F51">
-        <v>0.04630849290111886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0369966423864315</v>
+      </c>
+      <c r="G51">
+        <v>-0.03654690720949293</v>
+      </c>
+      <c r="H51">
+        <v>-0.0009747042951158989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1026273785950862</v>
+        <v>0.09479072524346513</v>
       </c>
       <c r="C53">
-        <v>-0.01123361614250283</v>
+        <v>0.08034786083880402</v>
       </c>
       <c r="D53">
-        <v>0.05518612926102741</v>
+        <v>0.006800526547572484</v>
       </c>
       <c r="E53">
-        <v>-0.05652798124509384</v>
+        <v>-0.04322253187554009</v>
       </c>
       <c r="F53">
-        <v>-0.0109266932694018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0681129394007334</v>
+      </c>
+      <c r="G53">
+        <v>-0.01583760861267846</v>
+      </c>
+      <c r="H53">
+        <v>0.006262992910125268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02924305425481411</v>
+        <v>0.02836272912004742</v>
       </c>
       <c r="C54">
-        <v>-0.007068947294993814</v>
+        <v>0.004377075970547377</v>
       </c>
       <c r="D54">
-        <v>-0.000688397368813108</v>
+        <v>0.005039049597088443</v>
       </c>
       <c r="E54">
-        <v>0.00514465729445861</v>
+        <v>-0.001417607595689959</v>
       </c>
       <c r="F54">
-        <v>0.02695287345559756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002894883087110207</v>
+      </c>
+      <c r="G54">
+        <v>-0.02487185178862954</v>
+      </c>
+      <c r="H54">
+        <v>-0.01460990861827296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07668317309401529</v>
+        <v>0.0695775531411945</v>
       </c>
       <c r="C55">
-        <v>-0.004915885983672439</v>
+        <v>0.07161009407833215</v>
       </c>
       <c r="D55">
-        <v>0.0675142637317324</v>
+        <v>0.005569919870216994</v>
       </c>
       <c r="E55">
-        <v>-0.03558509243580079</v>
+        <v>-0.03203690314826508</v>
       </c>
       <c r="F55">
-        <v>-0.02688297308489821</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06262186298635244</v>
+      </c>
+      <c r="G55">
+        <v>-0.005739289000846254</v>
+      </c>
+      <c r="H55">
+        <v>-0.003029231169886903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1431863981257437</v>
+        <v>0.1403087013894907</v>
       </c>
       <c r="C56">
-        <v>-0.004402844559236157</v>
+        <v>0.1038085004740558</v>
       </c>
       <c r="D56">
-        <v>0.07525528125036664</v>
+        <v>0.01564859537447195</v>
       </c>
       <c r="E56">
-        <v>-0.08879775186110098</v>
+        <v>-0.04567900849290599</v>
       </c>
       <c r="F56">
-        <v>-0.0198934225419352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.106911316525913</v>
+      </c>
+      <c r="G56">
+        <v>0.005327506157199124</v>
+      </c>
+      <c r="H56">
+        <v>-0.001261285934277997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04051231237351884</v>
+        <v>0.01593084992747932</v>
       </c>
       <c r="C57">
-        <v>0.007938067111891062</v>
+        <v>0.01273265194448919</v>
       </c>
       <c r="D57">
-        <v>0.01363214935831899</v>
+        <v>-0.0233955564813518</v>
       </c>
       <c r="E57">
-        <v>0.04075342884191618</v>
+        <v>0.03164397463259803</v>
       </c>
       <c r="F57">
-        <v>-0.001801439975893226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01695403916926052</v>
+      </c>
+      <c r="G57">
+        <v>-0.02247762597013338</v>
+      </c>
+      <c r="H57">
+        <v>0.003093053682848193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1792727168859835</v>
+        <v>0.06783234414887901</v>
       </c>
       <c r="C58">
-        <v>0.1360473942804408</v>
+        <v>0.09151575546930202</v>
       </c>
       <c r="D58">
-        <v>0.1367405423623312</v>
+        <v>-0.02015751443575631</v>
       </c>
       <c r="E58">
-        <v>0.6098083353188962</v>
+        <v>0.9467110876558236</v>
       </c>
       <c r="F58">
-        <v>-0.06444267404910899</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.215738449928795</v>
+      </c>
+      <c r="G58">
+        <v>-0.06976980255132158</v>
+      </c>
+      <c r="H58">
+        <v>-0.09950355813015528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09435683530574093</v>
+        <v>0.1586616712269127</v>
       </c>
       <c r="C59">
-        <v>0.04539873829941347</v>
+        <v>-0.2062447276616244</v>
       </c>
       <c r="D59">
-        <v>-0.1994151240079836</v>
+        <v>0.02024684400623721</v>
       </c>
       <c r="E59">
-        <v>0.05067779034082984</v>
+        <v>0.01727769240326596</v>
       </c>
       <c r="F59">
-        <v>0.04458942656905015</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01397401756228359</v>
+      </c>
+      <c r="G59">
+        <v>-0.021443042334717</v>
+      </c>
+      <c r="H59">
+        <v>-0.004334506518176272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2119698074421224</v>
+        <v>0.2887324453509119</v>
       </c>
       <c r="C60">
-        <v>0.05317710340535015</v>
+        <v>0.09289953172844821</v>
       </c>
       <c r="D60">
-        <v>-0.01916918658461855</v>
+        <v>-0.003460937312732402</v>
       </c>
       <c r="E60">
-        <v>0.1614688124113457</v>
+        <v>0.01777890047086132</v>
       </c>
       <c r="F60">
-        <v>0.2060986389911292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3887563588480588</v>
+      </c>
+      <c r="G60">
+        <v>0.04411110488300372</v>
+      </c>
+      <c r="H60">
+        <v>-0.0375790139937275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0355489995954161</v>
+        <v>0.02908805699673723</v>
       </c>
       <c r="C61">
-        <v>-0.003116177352725731</v>
+        <v>0.06522726370677891</v>
       </c>
       <c r="D61">
-        <v>0.05581914900354312</v>
+        <v>-0.004485733798889145</v>
       </c>
       <c r="E61">
-        <v>0.02787045511856564</v>
+        <v>-0.0003510101082560965</v>
       </c>
       <c r="F61">
-        <v>0.0328051735227712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0286675393908181</v>
+      </c>
+      <c r="G61">
+        <v>-0.01530790468950425</v>
+      </c>
+      <c r="H61">
+        <v>-0.003329679894190907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01686518996015969</v>
+        <v>0.01268677404553958</v>
       </c>
       <c r="C63">
-        <v>-0.007065123571466477</v>
+        <v>0.02918611861141172</v>
       </c>
       <c r="D63">
-        <v>0.02178357165426508</v>
+        <v>-0.007266336275311516</v>
       </c>
       <c r="E63">
-        <v>0.002813113047296524</v>
+        <v>-0.01664336585427939</v>
       </c>
       <c r="F63">
-        <v>-0.0009591334634311261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005365555222279478</v>
+      </c>
+      <c r="G63">
+        <v>-0.02069720299461636</v>
+      </c>
+      <c r="H63">
+        <v>-0.008866945778556916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05185786348613641</v>
+        <v>0.04656727453713204</v>
       </c>
       <c r="C64">
-        <v>-0.001215005607295583</v>
+        <v>0.03491643149565603</v>
       </c>
       <c r="D64">
-        <v>0.032175508369275</v>
+        <v>-0.003237201588512654</v>
       </c>
       <c r="E64">
-        <v>0.01371968564459261</v>
+        <v>-0.01805400999355763</v>
       </c>
       <c r="F64">
-        <v>0.01700253370066118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01503430630656211</v>
+      </c>
+      <c r="G64">
+        <v>-0.008979850108729497</v>
+      </c>
+      <c r="H64">
+        <v>0.02727876360927112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.07295014106821537</v>
+        <v>0.07447466730978718</v>
       </c>
       <c r="C65">
-        <v>-0.004700034403839118</v>
+        <v>0.07454378600069145</v>
       </c>
       <c r="D65">
-        <v>0.04473456915461354</v>
+        <v>-0.01471732328674878</v>
       </c>
       <c r="E65">
-        <v>0.022637297544811</v>
+        <v>-0.003100023725248404</v>
       </c>
       <c r="F65">
-        <v>0.03616668989120828</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04283035028054067</v>
+      </c>
+      <c r="G65">
+        <v>-0.009773599793541293</v>
+      </c>
+      <c r="H65">
+        <v>-0.01191285195709633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04746161175203029</v>
+        <v>0.04660791704079842</v>
       </c>
       <c r="C66">
-        <v>0.009624524253503325</v>
+        <v>0.1210130645379179</v>
       </c>
       <c r="D66">
-        <v>0.08240546358264138</v>
+        <v>-0.01045161872052142</v>
       </c>
       <c r="E66">
-        <v>0.02480443868409185</v>
+        <v>0.005296527350204838</v>
       </c>
       <c r="F66">
-        <v>0.06877490834880819</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05099157564728533</v>
+      </c>
+      <c r="G66">
+        <v>-0.003958461949165207</v>
+      </c>
+      <c r="H66">
+        <v>-0.01536480161927601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0406486957605532</v>
+        <v>0.0532372328921694</v>
       </c>
       <c r="C67">
-        <v>0.006757967404087633</v>
+        <v>0.02122172580113123</v>
       </c>
       <c r="D67">
-        <v>0.006043088410623328</v>
+        <v>0.00755851548561994</v>
       </c>
       <c r="E67">
-        <v>0.02081405691456914</v>
+        <v>-0.00839600673403351</v>
       </c>
       <c r="F67">
-        <v>0.01218268087831919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.004967137202234467</v>
+      </c>
+      <c r="G67">
+        <v>-0.01807508005484862</v>
+      </c>
+      <c r="H67">
+        <v>-0.003315562159754891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07753293153990121</v>
+        <v>0.1359650784200785</v>
       </c>
       <c r="C68">
-        <v>0.04149197178354683</v>
+        <v>-0.2558715354532521</v>
       </c>
       <c r="D68">
-        <v>-0.2208222372145048</v>
+        <v>0.001989137544563191</v>
       </c>
       <c r="E68">
-        <v>0.01342989074612298</v>
+        <v>0.01673086488952546</v>
       </c>
       <c r="F68">
-        <v>0.01248911307152036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01764142055412363</v>
+      </c>
+      <c r="G68">
+        <v>-0.0194728667329952</v>
+      </c>
+      <c r="H68">
+        <v>0.007335246824500594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05671141975029812</v>
+        <v>0.07201925369247035</v>
       </c>
       <c r="C69">
-        <v>0.001161109070565565</v>
+        <v>0.05780043921303851</v>
       </c>
       <c r="D69">
-        <v>0.03399048668550136</v>
+        <v>0.0106566680529291</v>
       </c>
       <c r="E69">
-        <v>-0.02530082383024312</v>
+        <v>-0.03445924199225051</v>
       </c>
       <c r="F69">
-        <v>0.00765679009632558</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03389989139995355</v>
+      </c>
+      <c r="G69">
+        <v>-0.01064597492559836</v>
+      </c>
+      <c r="H69">
+        <v>-0.01624147962709849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07101986945345672</v>
+        <v>0.1339819167266019</v>
       </c>
       <c r="C71">
-        <v>0.02787926228851487</v>
+        <v>-0.2156152478557281</v>
       </c>
       <c r="D71">
-        <v>-0.2250551596417663</v>
+        <v>0.01056500307716928</v>
       </c>
       <c r="E71">
-        <v>0.02593892554861641</v>
+        <v>0.02268036526285256</v>
       </c>
       <c r="F71">
-        <v>-0.03453226486705945</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02228821877601732</v>
+      </c>
+      <c r="G71">
+        <v>-0.03190051492887896</v>
+      </c>
+      <c r="H71">
+        <v>0.02386728223707215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1333235310587865</v>
+        <v>0.07966107730672348</v>
       </c>
       <c r="C72">
-        <v>0.01208871371289636</v>
+        <v>0.08493037340654551</v>
       </c>
       <c r="D72">
-        <v>0.1264693444446119</v>
+        <v>0.01050856984713844</v>
       </c>
       <c r="E72">
-        <v>0.1189092725590186</v>
+        <v>-0.01879769502107399</v>
       </c>
       <c r="F72">
-        <v>0.1845506344545384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0425559940147572</v>
+      </c>
+      <c r="G72">
+        <v>0.003958047069299352</v>
+      </c>
+      <c r="H72">
+        <v>-0.01846623775041263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2575071124482724</v>
+        <v>0.3913579047168746</v>
       </c>
       <c r="C73">
-        <v>0.1139204246901973</v>
+        <v>0.1192332473245038</v>
       </c>
       <c r="D73">
-        <v>0.009848303746115636</v>
+        <v>-0.00761681185622372</v>
       </c>
       <c r="E73">
-        <v>0.2325239830345148</v>
+        <v>0.06948888723762819</v>
       </c>
       <c r="F73">
-        <v>0.1505749764849458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5310907361500551</v>
+      </c>
+      <c r="G73">
+        <v>0.09355724663140998</v>
+      </c>
+      <c r="H73">
+        <v>0.06440649797676226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1305507828656288</v>
+        <v>0.1101669733572896</v>
       </c>
       <c r="C74">
-        <v>0.003898606923148007</v>
+        <v>0.1197731210210852</v>
       </c>
       <c r="D74">
-        <v>0.07654491965440748</v>
+        <v>0.01110029108430093</v>
       </c>
       <c r="E74">
-        <v>-0.07643245399529824</v>
+        <v>-0.04262013335309879</v>
       </c>
       <c r="F74">
-        <v>-0.002654428817587257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07340579220566673</v>
+      </c>
+      <c r="G74">
+        <v>-0.008537122541122126</v>
+      </c>
+      <c r="H74">
+        <v>-0.00202528874061886</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2735230664145529</v>
+        <v>0.2506142324474731</v>
       </c>
       <c r="C75">
-        <v>0.01900045456448362</v>
+        <v>0.1566725378596528</v>
       </c>
       <c r="D75">
-        <v>0.1121811771754182</v>
+        <v>0.03245122168217842</v>
       </c>
       <c r="E75">
-        <v>-0.1512317009803905</v>
+        <v>-0.06377070461961247</v>
       </c>
       <c r="F75">
-        <v>0.03192897502510714</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2171604553697534</v>
+      </c>
+      <c r="G75">
+        <v>0.02807807876497876</v>
+      </c>
+      <c r="H75">
+        <v>-0.01274354831591744</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2540442169750287</v>
+        <v>0.1480790222597273</v>
       </c>
       <c r="C76">
-        <v>-0.0048309487678139</v>
+        <v>0.1329982209882726</v>
       </c>
       <c r="D76">
-        <v>0.122711729762038</v>
+        <v>0.02489771793532015</v>
       </c>
       <c r="E76">
-        <v>-0.2193934208689659</v>
+        <v>-0.07352472097177717</v>
       </c>
       <c r="F76">
-        <v>0.002815795730741374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1468005005277047</v>
+      </c>
+      <c r="G76">
+        <v>0.0008013481214205957</v>
+      </c>
+      <c r="H76">
+        <v>-0.01192490827187428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05105994644324553</v>
+        <v>0.05177595247165287</v>
       </c>
       <c r="C77">
-        <v>0.00340750238226176</v>
+        <v>0.05973755336519828</v>
       </c>
       <c r="D77">
-        <v>0.04376679564206147</v>
+        <v>-0.01074689111596816</v>
       </c>
       <c r="E77">
-        <v>0.06364476569775862</v>
+        <v>0.02718074371563989</v>
       </c>
       <c r="F77">
-        <v>-0.01163175995604603</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.00919524485706227</v>
+      </c>
+      <c r="G77">
+        <v>-0.03204563503858059</v>
+      </c>
+      <c r="H77">
+        <v>-0.00749633859225342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0326863952717415</v>
+        <v>0.04121995109016224</v>
       </c>
       <c r="C78">
-        <v>-0.007465760555333992</v>
+        <v>0.05378329278630608</v>
       </c>
       <c r="D78">
-        <v>0.04924497672802081</v>
+        <v>-0.00435601309901688</v>
       </c>
       <c r="E78">
-        <v>0.06324983297333887</v>
+        <v>0.01530342684156573</v>
       </c>
       <c r="F78">
-        <v>0.06882958700810955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04702414443928161</v>
+      </c>
+      <c r="G78">
+        <v>-0.02519570021232109</v>
+      </c>
+      <c r="H78">
+        <v>-0.01389222410048424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2180653767417211</v>
+        <v>0.06432340590108052</v>
       </c>
       <c r="C80">
-        <v>-0.9413559189318389</v>
+        <v>0.08232435142944478</v>
       </c>
       <c r="D80">
-        <v>-0.1268201994134603</v>
+        <v>-0.01221082128929055</v>
       </c>
       <c r="E80">
-        <v>0.1281791932339093</v>
+        <v>-0.07072612118835095</v>
       </c>
       <c r="F80">
-        <v>-0.07443909485756711</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02304904601075274</v>
+      </c>
+      <c r="G80">
+        <v>-0.912099857097005</v>
+      </c>
+      <c r="H80">
+        <v>0.2762309266215309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2078827102251466</v>
+        <v>0.1482953935469636</v>
       </c>
       <c r="C81">
-        <v>0.003512181155439834</v>
+        <v>0.1001052923525028</v>
       </c>
       <c r="D81">
-        <v>0.08333092260031093</v>
+        <v>0.01867143010880639</v>
       </c>
       <c r="E81">
-        <v>-0.1173160259487293</v>
+        <v>-0.04447517324776799</v>
       </c>
       <c r="F81">
-        <v>0.03091965575235405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1395652365478267</v>
+      </c>
+      <c r="G81">
+        <v>-0.006869289348475697</v>
+      </c>
+      <c r="H81">
+        <v>-0.01111716033308411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03618933102013126</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02645268219379346</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002660901619315276</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.02180574552046253</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0001826481561651109</v>
+      </c>
+      <c r="G82">
+        <v>-0.001393327717301679</v>
+      </c>
+      <c r="H82">
+        <v>-0.01510135402962101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0373804423808804</v>
+        <v>0.02721821865140247</v>
       </c>
       <c r="C83">
-        <v>0.007035566525960178</v>
+        <v>0.0173451014860258</v>
       </c>
       <c r="D83">
-        <v>0.005176764123854432</v>
+        <v>-0.004387271343031039</v>
       </c>
       <c r="E83">
-        <v>0.03683639335559262</v>
+        <v>0.02072567636586084</v>
       </c>
       <c r="F83">
-        <v>0.01448694956869686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02429368690032948</v>
+      </c>
+      <c r="G83">
+        <v>-0.02664725589384327</v>
+      </c>
+      <c r="H83">
+        <v>-0.007509565225332577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2542061649825577</v>
+        <v>0.2448377707806726</v>
       </c>
       <c r="C85">
-        <v>0.02531310117454439</v>
+        <v>0.1640853351240127</v>
       </c>
       <c r="D85">
-        <v>0.1324243456248051</v>
+        <v>0.02270650411848341</v>
       </c>
       <c r="E85">
-        <v>-0.1863472233136936</v>
+        <v>-0.1043137282276722</v>
       </c>
       <c r="F85">
-        <v>0.0118177392484129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2102616258527446</v>
+      </c>
+      <c r="G85">
+        <v>0.06639181082290967</v>
+      </c>
+      <c r="H85">
+        <v>-0.01430488002007201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0118462759610468</v>
+        <v>0.007615170852733381</v>
       </c>
       <c r="C86">
-        <v>-0.008285944229549655</v>
+        <v>0.02750659180558642</v>
       </c>
       <c r="D86">
-        <v>0.03634996911451995</v>
+        <v>-0.00947381782379457</v>
       </c>
       <c r="E86">
-        <v>0.05639470687599338</v>
+        <v>0.0130606395971438</v>
       </c>
       <c r="F86">
-        <v>0.03099879296158233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02547194997344577</v>
+      </c>
+      <c r="G86">
+        <v>-0.04759370237176971</v>
+      </c>
+      <c r="H86">
+        <v>0.02456950035221262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02684008193561508</v>
+        <v>0.016208371124314</v>
       </c>
       <c r="C87">
-        <v>-0.005573447889772698</v>
+        <v>0.02904246962562991</v>
       </c>
       <c r="D87">
-        <v>0.02739386233783864</v>
+        <v>-0.0107269613778224</v>
       </c>
       <c r="E87">
-        <v>0.1013654224495542</v>
+        <v>0.07365908884691622</v>
       </c>
       <c r="F87">
-        <v>0.05710731968481055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06523226815222544</v>
+      </c>
+      <c r="G87">
+        <v>-0.03903894110679838</v>
+      </c>
+      <c r="H87">
+        <v>0.004777506794500284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04873623792858512</v>
+        <v>0.08297615711624406</v>
       </c>
       <c r="C88">
-        <v>0.01000742756220359</v>
+        <v>0.04772153676989595</v>
       </c>
       <c r="D88">
-        <v>0.0002354482391493672</v>
+        <v>-0.01910782909108451</v>
       </c>
       <c r="E88">
-        <v>-0.0006147662753166077</v>
+        <v>-0.01804182912402908</v>
       </c>
       <c r="F88">
-        <v>0.01411968061457393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01147709637041957</v>
+      </c>
+      <c r="G88">
+        <v>-0.01959518570824868</v>
+      </c>
+      <c r="H88">
+        <v>-0.02383872767256664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1440588296570364</v>
+        <v>0.2357728962349439</v>
       </c>
       <c r="C89">
-        <v>0.08472530121044318</v>
+        <v>-0.3740146749863602</v>
       </c>
       <c r="D89">
-        <v>-0.3799511472546617</v>
+        <v>0.01643814516460038</v>
       </c>
       <c r="E89">
-        <v>-0.005141752033847018</v>
+        <v>-0.003855343786110328</v>
       </c>
       <c r="F89">
-        <v>0.07310070619644463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02271618020516882</v>
+      </c>
+      <c r="G89">
+        <v>-0.02323962039930223</v>
+      </c>
+      <c r="H89">
+        <v>-0.01214858298539537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.081718694782315</v>
+        <v>0.1941347938672688</v>
       </c>
       <c r="C90">
-        <v>0.07588590994002017</v>
+        <v>-0.3317132735341402</v>
       </c>
       <c r="D90">
-        <v>-0.3396355900122644</v>
+        <v>0.01675212411835855</v>
       </c>
       <c r="E90">
-        <v>-0.04455880357448462</v>
+        <v>0.005714447690257935</v>
       </c>
       <c r="F90">
-        <v>-0.006664292272036807</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04311733003846679</v>
+      </c>
+      <c r="G90">
+        <v>-0.003332329688267794</v>
+      </c>
+      <c r="H90">
+        <v>0.001009734617788584</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2833640422311562</v>
+        <v>0.2089377911380804</v>
       </c>
       <c r="C91">
-        <v>0.02196299436033478</v>
+        <v>0.1363874269519502</v>
       </c>
       <c r="D91">
-        <v>0.1468852531460809</v>
+        <v>0.02804506291736892</v>
       </c>
       <c r="E91">
-        <v>-0.2337978923910487</v>
+        <v>-0.08574703245214306</v>
       </c>
       <c r="F91">
-        <v>-0.0572728120359489</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1967413710833287</v>
+      </c>
+      <c r="G91">
+        <v>0.02267693190408756</v>
+      </c>
+      <c r="H91">
+        <v>-0.007289183650105556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2424102338349465</v>
+        <v>0.2254915927020064</v>
       </c>
       <c r="C92">
-        <v>0.08908390769580114</v>
+        <v>-0.2548709942072913</v>
       </c>
       <c r="D92">
-        <v>-0.3570637836631949</v>
+        <v>0.05802329765323987</v>
       </c>
       <c r="E92">
-        <v>-0.1344222843052909</v>
+        <v>0.008304015328257809</v>
       </c>
       <c r="F92">
-        <v>-0.07763029253357895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1480770847824694</v>
+      </c>
+      <c r="G92">
+        <v>-0.04486659066605307</v>
+      </c>
+      <c r="H92">
+        <v>0.006283130520519324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1326351682787063</v>
+        <v>0.2220172694386364</v>
       </c>
       <c r="C93">
-        <v>0.1034429948963162</v>
+        <v>-0.3278361069177899</v>
       </c>
       <c r="D93">
-        <v>-0.3940450294948406</v>
+        <v>0.02365971879387796</v>
       </c>
       <c r="E93">
-        <v>-0.01162972836081703</v>
+        <v>0.01868784437905737</v>
       </c>
       <c r="F93">
-        <v>-0.05524116969307483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01566676520975413</v>
+      </c>
+      <c r="G93">
+        <v>0.007096451246855689</v>
+      </c>
+      <c r="H93">
+        <v>0.04118691533419119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3179707909338845</v>
+        <v>0.2731371579219457</v>
       </c>
       <c r="C94">
-        <v>0.05321063928193238</v>
+        <v>0.1619348119172151</v>
       </c>
       <c r="D94">
-        <v>0.1257258809240947</v>
+        <v>0.01637694703614001</v>
       </c>
       <c r="E94">
-        <v>-0.2345232444069514</v>
+        <v>-0.1037874110704126</v>
       </c>
       <c r="F94">
-        <v>0.06246593192419514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3558554781153631</v>
+      </c>
+      <c r="G94">
+        <v>0.109685191246624</v>
+      </c>
+      <c r="H94">
+        <v>-0.2383354661222516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07596518647636871</v>
+        <v>0.07338921330519217</v>
       </c>
       <c r="C95">
-        <v>0.07660885682700329</v>
+        <v>0.0937164009987895</v>
       </c>
       <c r="D95">
-        <v>0.03612757129912986</v>
+        <v>0.00726221473595433</v>
       </c>
       <c r="E95">
-        <v>0.01299334674520913</v>
+        <v>0.07387115309828272</v>
       </c>
       <c r="F95">
-        <v>0.09455622377795164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1471069878043894</v>
+      </c>
+      <c r="G95">
+        <v>0.05835701437385004</v>
+      </c>
+      <c r="H95">
+        <v>0.00956189217730136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.211115608902549</v>
+        <v>0.2139796498634387</v>
       </c>
       <c r="C98">
-        <v>0.07371474172253081</v>
+        <v>0.0519601908272295</v>
       </c>
       <c r="D98">
-        <v>-0.02443351158229804</v>
+        <v>0.02163514400775097</v>
       </c>
       <c r="E98">
-        <v>0.2361690442879488</v>
+        <v>0.06782962627367584</v>
       </c>
       <c r="F98">
-        <v>0.1739575226399657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2567539455207513</v>
+      </c>
+      <c r="G98">
+        <v>0.03396698092047436</v>
+      </c>
+      <c r="H98">
+        <v>0.05452248803635593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02952186037559804</v>
+        <v>0.01302170892194838</v>
       </c>
       <c r="C101">
-        <v>-0.0003962415032706632</v>
+        <v>0.02378313559407506</v>
       </c>
       <c r="D101">
-        <v>0.02274614090634251</v>
+        <v>-0.008242917510045883</v>
       </c>
       <c r="E101">
-        <v>0.1258027084919724</v>
+        <v>0.03228034892280347</v>
       </c>
       <c r="F101">
-        <v>-0.009698599446089954</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02195269509710416</v>
+      </c>
+      <c r="G101">
+        <v>-0.03300710922666512</v>
+      </c>
+      <c r="H101">
+        <v>-0.02146394337953439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1394567877015412</v>
+        <v>0.1182886036023595</v>
       </c>
       <c r="C102">
-        <v>0.008446474868689496</v>
+        <v>0.07942879923515836</v>
       </c>
       <c r="D102">
-        <v>0.05766203541007198</v>
+        <v>0.001442949960757996</v>
       </c>
       <c r="E102">
-        <v>-0.1028955162643291</v>
+        <v>-0.04681491939062774</v>
       </c>
       <c r="F102">
-        <v>-0.03649774947619924</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06255246768002246</v>
+      </c>
+      <c r="G102">
+        <v>0.01965973011674258</v>
+      </c>
+      <c r="H102">
+        <v>0.009658264933030916</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03572976616561459</v>
+        <v>0.006459281455225637</v>
       </c>
       <c r="C103">
-        <v>-0.01422870869308252</v>
+        <v>0.006624966749601827</v>
       </c>
       <c r="D103">
-        <v>0.01967193044340659</v>
+        <v>-0.0003614379510125934</v>
       </c>
       <c r="E103">
-        <v>-0.009492574249432792</v>
+        <v>-0.001315066907449618</v>
       </c>
       <c r="F103">
-        <v>-0.0009786121489755118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01097045259520834</v>
+      </c>
+      <c r="G103">
+        <v>-0.0135172731435367</v>
+      </c>
+      <c r="H103">
+        <v>0.01015148267481217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.05527934213862035</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.05042695871394447</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9847802771583893</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04297368494780904</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.0329329291655632</v>
+      </c>
+      <c r="G104">
+        <v>-0.008420940316414044</v>
+      </c>
+      <c r="H104">
+        <v>-0.1006111112578126</v>
       </c>
     </row>
   </sheetData>
